--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>what is prerequites course</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A prerequisite is a course that a student must take and pass before he/she can take another related course. For example, Calculus I is a prerequisite to Calculus II.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>What is GP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The Graduation Project (GP) is a formal course (KGP4495) taken by students nearing graduation to integrate their academic knowledge into practical application. It involves submitting a proposal, conducting research, writing a report, and presenting findings, evaluated by an academic committee including an external evaluator. A minimum "C" grade is required to pass.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,36 +448,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>what is a corerequiste course?</t>
+          <t>give me java code to sum 2 numbers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A corequisite course is a course that must be taken at the same time as another course.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>what is prerequites course</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A prerequisite is a course that a student must take and pass before he/she can take another related course. For example, Calculus I is a prerequisite to Calculus II.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>What is GP</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The Graduation Project (GP) is a formal course (KGP4495) taken by students nearing graduation to integrate their academic knowledge into practical application. It involves submitting a proposal, conducting research, writing a report, and presenting findings, evaluated by an academic committee including an external evaluator. A minimum "C" grade is required to pass.</t>
+          <t>Here is the Java code to sum two numbers:
+```java
+import java.util.Scanner;
+public class SumTwoNumbers {
+    public static void main(String[] args) {
+        Scanner scanner = new Scanner(System.in);
+        System.out.print("Enter first number: ");
+        int a = scanner.nextInt();
+        System.out.print("Enter second number: ");
+        int b = scanner.nextInt();
+        int sum = a + b;
+        System.out.println("The sum is: " + sum);
+    }
+}
+```</t>
         </is>
       </c>
     </row>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>How can i continue to study in komar if i am acstudent from another universitu</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>To continue your studies at Komar University of Science and Technology (KUST) as a transfer student from another university, you should contact the Office of Student Affairs and Registration (OSAR). KUST permits students from public and private higher education institutions both inside and outside the Kurdistan Region to transfer, and you can find the latest instructions and requirements by consulting with OSAR.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>What are the requirements for Practical Training?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>API Error 429: {'message': 'Provider returned error', 'code': 429, 'metadata': {'raw': 'deepseek/deepseek-r1-0528-qwen3-8b:free is temporarily rate-limited upstream. Please retry shortly, or add your own key to accumulate your rate limits: https://openrouter.ai/settings/integrations', 'provider_name': 'Chutes'}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>What are the requirements for Internship?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Internship Program requires students to have acquired the necessary skills and knowledge during their three years of study. Students must follow the guidelines provided in the booklet and check with their department for specific details.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,18 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>How many credits can I take in a semester?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The normal undergraduate program load is 15 credit hours each semester. For medical departments, the minimum requirement is 18 credit hours per semester.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,18 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>What is the maximum number of credits I can take?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The maximum number of credits a student can take is 15 credit hours per semester for non-medical departments and 18 credit hours for medical departments. Students with a GPA of 3.0 or higher may request an extra course load with the consent of an academic advisor.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,18 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>How many courses are there in the English department?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>There are 11 courses in the English department.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,18 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>What is a prerequisite course?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A prerequisite is a course that a student must take and pass before he/she can take another related course. If a course has a prerequisite, it is listed in the course description in the KUST’s Catalogue. (Ex. Calculus I, is a prerequisite to Calculus II).</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,18 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Can I take Pragmatics before semantics?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>According to the BOOK content, Pragmatics (EGH4200) is listed as a corequisite for Semantics (LNG3200). Therefore, you cannot take Pragmatics before Semantics.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,122 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>give me java code to sum 2 numbers</t>
+          <t>What is the prerequisite for Phonetics?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Here is the Java code to sum two numbers:
-```java
-import java.util.Scanner;
-public class SumTwoNumbers {
-    public static void main(String[] args) {
-        Scanner scanner = new Scanner(System.in);
-        System.out.print("Enter first number: ");
-        int a = scanner.nextInt();
-        System.out.print("Enter second number: ");
-        int b = scanner.nextInt();
-        int sum = a + b;
-        System.out.println("The sum is: " + sum);
-    }
-}
-```</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>How can i continue to study in komar if i am acstudent from another universitu</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>To continue your studies at Komar University of Science and Technology (KUST) as a transfer student from another university, you should contact the Office of Student Affairs and Registration (OSAR). KUST permits students from public and private higher education institutions both inside and outside the Kurdistan Region to transfer, and you can find the latest instructions and requirements by consulting with OSAR.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>What are the requirements for Practical Training?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>API Error 429: {'message': 'Provider returned error', 'code': 429, 'metadata': {'raw': 'deepseek/deepseek-r1-0528-qwen3-8b:free is temporarily rate-limited upstream. Please retry shortly, or add your own key to accumulate your rate limits: https://openrouter.ai/settings/integrations', 'provider_name': 'Chutes'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>What are the requirements for Internship?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The Internship Program requires students to have acquired the necessary skills and knowledge during their three years of study. Students must follow the guidelines provided in the booklet and check with their department for specific details.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>How many credits can I take in a semester?</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The normal undergraduate program load is 15 credit hours each semester. For medical departments, the minimum requirement is 18 credit hours per semester.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>What is the maximum number of credits I can take?</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The maximum number of credits a student can take is 15 credit hours per semester for non-medical departments and 18 credit hours for medical departments. Students with a GPA of 3.0 or higher may request an extra course load with the consent of an academic advisor.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>How many courses are there in the English department?</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>There are 11 courses in the English department.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>What is a prerequisite course?</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>A prerequisite is a course that a student must take and pass before he/she can take another related course. If a course has a prerequisite, it is listed in the course description in the KUST’s Catalogue. (Ex. Calculus I, is a prerequisite to Calculus II).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Can I take Pragmatics before semantics?</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>According to the BOOK content, Pragmatics (EGH4200) is listed as a corequisite for Semantics (LNG3200). Therefore, you cannot take Pragmatics before Semantics.</t>
+          <t>Introduction to Linguistics (LNG1205)</t>
         </is>
       </c>
     </row>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Can I take Introduction to Linguistics and Phonetics in the same semester?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>According to the BOOK, Introduction to Linguistics (LNG1205) is a prerequisite for Phonetics (EGH2200). Therefore, you cannot take Phonetics until after completing Introduction to Linguistics.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Can you let me know how I can register for GP?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Consult your department for details about this question.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>How can I register for Graduation Project?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>To register for the Graduation Project, students must be assigned an academic advisor and fulfill the prerequisites, including completing a minimum of 100 credit hours or 80% of the required credits with a GPA of "C" (65-69). Registration is typically done through the MyKomar system or by filling out the necessary forms with the academic advisor.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,48 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What is the prerequisite for Phonetics?</t>
+          <t>Who is Mrs. Beulah?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Introduction to Linguistics (LNG1205)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Can I take Introduction to Linguistics and Phonetics in the same semester?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>According to the BOOK, Introduction to Linguistics (LNG1205) is a prerequisite for Phonetics (EGH2200). Therefore, you cannot take Phonetics until after completing Introduction to Linguistics.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Can you let me know how I can register for GP?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Consult your department for details about this question.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>How can I register for Graduation Project?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>To register for the Graduation Project, students must be assigned an academic advisor and fulfill the prerequisites, including completing a minimum of 100 credit hours or 80% of the required credits with a GPA of "C" (65-69). Registration is typically done through the MyKomar system or by filling out the necessary forms with the academic advisor.</t>
+          <t>Mrs. Beulah Mathew is a faculty member at KUST with the email address beulah.mathew@komar.edu.iq and office located at B-226.</t>
         </is>
       </c>
     </row>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>What is the prerequisite for Phonology?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Phonetics (EGH2200) is the prerequisite for Phonology (EGH2205).</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,22 +448,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Who is Mrs. Beulah?</t>
+          <t>What is the prerequisite course for Phonology?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>Mrs. Beulah Mathew is a faculty member at KUST with the email address beulah.mathew@komar.edu.iq and office located at B-226.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>What is the prerequisite for Phonology?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>Phonetics (EGH2200) is the prerequisite for Phonology (EGH2205).</t>
         </is>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>What are the requirements for Graduation Project?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>To pass the Graduation Project course, students must submit a proposal, collect and analyze data with advisor approval, submit a report, deliver presentations, and achieve a "C" grade or higher. Prerequisites include completing at least 100 credit hours (or 80% for Dentistry/Pharmacy) with a C GPA, along with specific courses like professional communication, research methodology, and the internship program.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Who is Mrs. Heero?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The BOOK does not provide information about Mrs. Heero.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Who is Heero?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heero Rashasoor is a faculty member at KUST with contact details provided in the faculty contact section.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chat_logs/chat_history.xlsx
+++ b/chat_logs/chat_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,18 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>What is Mrs. Heero's IP number?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
